--- a/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/metrics/Trial_363__Reeval_Sobol_Modell_2.xlsx
+++ b/Ergebnisse_Teil_1/Study_15_10_2025_Sobol_Modell_2_KS_Holdout_seed_0/metrics/Trial_363__Reeval_Sobol_Modell_2.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>True Values Train</t>
   </si>
@@ -35,10 +35,10 @@
     <t>Predictions Test</t>
   </si>
   <si>
-    <t>Chart_Y</t>
+    <t>Chart_X</t>
   </si>
   <si>
-    <t>Chart_X</t>
+    <t>Chart_Y</t>
   </si>
   <si>
     <t>Epoch</t>
@@ -6088,7 +6088,7 @@
                   <c:v>357.693603515625</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>345.7794494628906</c:v>
+                  <c:v>345.7794799804688</c:v>
                 </c:pt>
                 <c:pt idx="11">
                   <c:v>343.5286254882812</c:v>
@@ -6148,7 +6148,7 @@
                   <c:v>358.3361511230469</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>356.6983337402344</c:v>
+                  <c:v>356.6983032226562</c:v>
                 </c:pt>
                 <c:pt idx="31">
                   <c:v>367.88916015625</c:v>
@@ -6181,7 +6181,7 @@
                   <c:v>332.5382080078125</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>343.0769348144531</c:v>
+                  <c:v>343.0769653320312</c:v>
                 </c:pt>
                 <c:pt idx="42">
                   <c:v>364.8797302246094</c:v>
@@ -6190,13 +6190,13 @@
                   <c:v>343.5182495117188</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>365.8945922851562</c:v>
+                  <c:v>365.8945617675781</c:v>
                 </c:pt>
                 <c:pt idx="45">
                   <c:v>343.0768737792969</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>361.4366455078125</c:v>
+                  <c:v>361.4366760253906</c:v>
                 </c:pt>
                 <c:pt idx="47">
                   <c:v>346.0535583496094</c:v>
@@ -6292,7 +6292,7 @@
                   <c:v>340.7945556640625</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>364.2340698242188</c:v>
+                  <c:v>364.2340393066406</c:v>
                 </c:pt>
                 <c:pt idx="79">
                   <c:v>351.4181213378906</c:v>
@@ -6331,7 +6331,7 @@
                   <c:v>367.7343444824219</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>364.3506469726562</c:v>
+                  <c:v>364.3506774902344</c:v>
                 </c:pt>
                 <c:pt idx="92">
                   <c:v>358.7656555175781</c:v>
@@ -6389,7 +6389,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$2:$H$3</c:f>
+              <c:f>All_Data!$R$2:$R$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6404,7 +6404,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$2:$G$3</c:f>
+              <c:f>All_Data!$S$2:$S$3</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6433,7 +6433,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$4:$H$5</c:f>
+              <c:f>All_Data!$R$4:$R$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6448,7 +6448,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$4:$G$5</c:f>
+              <c:f>All_Data!$S$4:$S$5</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6477,7 +6477,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>All_Data!$H$6:$H$7</c:f>
+              <c:f>All_Data!$R$6:$R$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -6492,7 +6492,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>All_Data!$G$6:$G$7</c:f>
+              <c:f>All_Data!$S$6:$S$7</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="2"/>
@@ -7004,13 +7004,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H810"/>
+  <dimension ref="A1:S810"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -7035,8 +7035,14 @@
       <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:8">
+      <c r="R1" t="s">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2">
         <v>362.4</v>
       </c>
@@ -7061,8 +7067,14 @@
       <c r="H2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3">
         <v>359.544</v>
       </c>
@@ -7087,8 +7099,14 @@
       <c r="H3">
         <v>375</v>
       </c>
-    </row>
-    <row r="4" spans="1:8">
+      <c r="R3">
+        <v>375</v>
+      </c>
+      <c r="S3">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4">
         <v>358.201</v>
       </c>
@@ -7108,13 +7126,19 @@
         <v>348.5232238769531</v>
       </c>
       <c r="G4">
+        <v>375</v>
+      </c>
+      <c r="H4">
         <v>0</v>
       </c>
-      <c r="H4">
+      <c r="R4">
         <v>375</v>
       </c>
-    </row>
-    <row r="5" spans="1:8">
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5">
         <v>355.336</v>
       </c>
@@ -7139,8 +7163,14 @@
       <c r="H5">
         <v>375</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="R5">
+        <v>375</v>
+      </c>
+      <c r="S5">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6">
         <v>355.427</v>
       </c>
@@ -7160,13 +7190,19 @@
         <v>359.5279235839844</v>
       </c>
       <c r="G6">
+        <v>0</v>
+      </c>
+      <c r="H6">
         <v>375</v>
       </c>
-      <c r="H6">
+      <c r="R6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="S6">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7">
         <v>360.582</v>
       </c>
@@ -7191,8 +7227,14 @@
       <c r="H7">
         <v>375</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="R7">
+        <v>375</v>
+      </c>
+      <c r="S7">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8">
         <v>357.585</v>
       </c>
@@ -7212,7 +7254,7 @@
         <v>368.6588439941406</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:19">
       <c r="A9">
         <v>338.571</v>
       </c>
@@ -7232,7 +7274,7 @@
         <v>340.1417541503906</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:19">
       <c r="A10">
         <v>355.528</v>
       </c>
@@ -7252,7 +7294,7 @@
         <v>340.7186889648438</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:19">
       <c r="A11">
         <v>362.336</v>
       </c>
@@ -7272,7 +7314,7 @@
         <v>357.693603515625</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:19">
       <c r="A12">
         <v>356.563</v>
       </c>
@@ -7289,10 +7331,10 @@
         <v>341.458</v>
       </c>
       <c r="F12">
-        <v>345.7794494628906</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
+        <v>345.7794799804688</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13">
         <v>330.878</v>
       </c>
@@ -7312,7 +7354,7 @@
         <v>343.5286254882812</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:19">
       <c r="A14">
         <v>340.384</v>
       </c>
@@ -7332,7 +7374,7 @@
         <v>354.2091979980469</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:19">
       <c r="A15">
         <v>359.105</v>
       </c>
@@ -7352,7 +7394,7 @@
         <v>360.4754333496094</v>
       </c>
     </row>
-    <row r="16" spans="1:8">
+    <row r="16" spans="1:19">
       <c r="A16">
         <v>358</v>
       </c>
@@ -7689,7 +7731,7 @@
         <v>336.037</v>
       </c>
       <c r="F32">
-        <v>356.6983337402344</v>
+        <v>356.6983032226562</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -7909,7 +7951,7 @@
         <v>361.758</v>
       </c>
       <c r="F43">
-        <v>343.0769348144531</v>
+        <v>343.0769653320312</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -7969,7 +8011,7 @@
         <v>340.297</v>
       </c>
       <c r="F46">
-        <v>365.8945922851562</v>
+        <v>365.8945617675781</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -8009,7 +8051,7 @@
         <v>342.805</v>
       </c>
       <c r="F48">
-        <v>361.4366455078125</v>
+        <v>361.4366760253906</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -8649,7 +8691,7 @@
         <v>357.831</v>
       </c>
       <c r="F80">
-        <v>364.2340698242188</v>
+        <v>364.2340393066406</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -8909,7 +8951,7 @@
         <v>339.052</v>
       </c>
       <c r="F93">
-        <v>364.3506469726562</v>
+        <v>364.3506774902344</v>
       </c>
     </row>
     <row r="94" spans="1:6">
